--- a/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1170,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1193,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1216,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
   <si>
     <t>Mat</t>
   </si>
@@ -79,94 +79,211 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>AMABLE</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MERINO</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ALCARAZ</t>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TLEHUACTLE</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VALERDE</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
-    <t>RENZO JHOVANI</t>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BERMUDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>KAREN YESSENIA</t>
+  </si>
+  <si>
+    <t>CRYSTAL MICHELL</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>LEYNER</t>
+  </si>
+  <si>
+    <t>GUADALUPE ABRIL</t>
   </si>
   <si>
     <t>KEVIN JETHZAEL</t>
   </si>
   <si>
+    <t>TANIA ARLETH</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>GUILLERMO UBALDO</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>ASAEL PAULINO</t>
+  </si>
+  <si>
+    <t>HEIDI YAMILET</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
     <t>JUDITH ESTEFANIA</t>
   </si>
   <si>
-    <t>RUTH</t>
+    <t>MILKA</t>
+  </si>
+  <si>
+    <t>DAYRA DENISSE</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>SARAI</t>
+  </si>
+  <si>
+    <t>ATZIN ADAO</t>
+  </si>
+  <si>
+    <t>ALAN YAMIL</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1060,22 +1177,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920168</v>
+        <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1083,22 +1200,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920422</v>
+        <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1106,22 +1223,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920024</v>
+        <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1129,22 +1246,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920303</v>
+        <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1152,22 +1269,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920429</v>
+        <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1175,22 +1292,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920235</v>
+        <v>19330051920192</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1198,22 +1315,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920237</v>
+        <v>19330051920193</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1221,22 +1338,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920404</v>
+        <v>19330051920197</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1244,16 +1361,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920197</v>
+        <v>19330051920196</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1267,16 +1384,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920214</v>
+        <v>19330051920200</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1290,25 +1407,393 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920180</v>
+        <v>19330051920202</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920212</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920439</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920219</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
   <si>
     <t>Mat</t>
   </si>
@@ -79,6 +79,72 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ALEJO</t>
+  </si>
+  <si>
+    <t>CESPEDES</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>AMABLE</t>
   </si>
   <si>
@@ -91,9 +157,6 @@
     <t>DEMUNER</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
@@ -115,9 +178,6 @@
     <t>LIMA</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MERINO</t>
   </si>
   <si>
@@ -154,6 +214,48 @@
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ALCARAZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>LARA</t>
   </si>
   <si>
@@ -169,9 +271,6 @@
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TLEHUACTLE</t>
   </si>
   <si>
@@ -184,9 +283,6 @@
     <t>VALERDE</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -205,6 +301,72 @@
     <t>TEMOXTLE</t>
   </si>
   <si>
+    <t>RAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ERICK MANUEL</t>
+  </si>
+  <si>
+    <t>IRVING YAHIR</t>
+  </si>
+  <si>
+    <t>BRAULIO VADIR</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>RENZO JHOVANI</t>
+  </si>
+  <si>
+    <t>MARIA DE JESUS</t>
+  </si>
+  <si>
+    <t>ANGEL EDUARDO</t>
+  </si>
+  <si>
+    <t>YESUA ISIDRO</t>
+  </si>
+  <si>
+    <t>HANNIA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ISMERAI</t>
+  </si>
+  <si>
+    <t>FERNANDA CAMILA</t>
+  </si>
+  <si>
+    <t>MELISSA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ALMA EDITH</t>
+  </si>
+  <si>
+    <t>KATHE ALONDRA</t>
+  </si>
+  <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
     <t>KAREN YESSENIA</t>
   </si>
   <si>
@@ -257,9 +419,6 @@
   </si>
   <si>
     <t>HEIDI YAMILET</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
   </si>
   <si>
     <t>JANETH</t>
@@ -1142,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1177,22 +1336,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920186</v>
+        <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1200,22 +1359,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920185</v>
+        <v>19330051920225</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1223,22 +1382,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920187</v>
+        <v>19330051920229</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1246,22 +1405,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920189</v>
+        <v>19330051920230</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1269,22 +1428,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920190</v>
+        <v>19330051920232</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1292,22 +1451,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920192</v>
+        <v>19330051920237</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1315,22 +1474,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920193</v>
+        <v>19330051420227</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1338,22 +1497,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920197</v>
+        <v>19330051920404</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1361,22 +1520,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920196</v>
+        <v>19330051920240</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1384,22 +1543,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920200</v>
+        <v>19330051920242</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1407,22 +1566,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920202</v>
+        <v>19330051920245</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1430,22 +1589,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920203</v>
+        <v>19330051920126</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1453,22 +1612,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920204</v>
+        <v>19330051920127</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1476,22 +1635,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920206</v>
+        <v>19330051920380</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1499,22 +1658,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920207</v>
+        <v>19330051920132</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1522,22 +1681,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920209</v>
+        <v>19330051920134</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1545,22 +1704,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920211</v>
+        <v>19330051920002</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1568,22 +1727,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920215</v>
+        <v>19330051920137</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1591,22 +1750,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920212</v>
+        <v>19330051920140</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1614,22 +1773,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920213</v>
+        <v>19330051920143</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1637,22 +1796,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920214</v>
+        <v>19330051920144</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1660,22 +1819,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920216</v>
+        <v>19330051920147</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1683,16 +1842,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920218</v>
+        <v>19330051920186</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1706,16 +1865,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920220</v>
+        <v>19330051920185</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1729,16 +1888,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920439</v>
+        <v>19330051920187</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1752,16 +1911,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920219</v>
+        <v>19330051920189</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1775,24 +1934,530 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>19330051920190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>19330051920211</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>19330051920215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>19330051920212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>19330051920213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>19330051920214</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>19330051920216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>19330051920218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>19330051920220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>19330051920439</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>19330051920219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
         <v>19330051920221</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="140">
   <si>
     <t>Mat</t>
   </si>
@@ -79,24 +79,57 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
     <t>ALEJO</t>
   </si>
   <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>CESPEDES</t>
   </si>
   <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
     <t>DIAZ</t>
   </si>
   <si>
     <t>ESTRADA</t>
   </si>
   <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
@@ -106,123 +139,111 @@
     <t>RIVERA</t>
   </si>
   <si>
+    <t>RICO</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
     <t>SOLIS</t>
   </si>
   <si>
-    <t>TREJO</t>
+    <t>AMABLE</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>MERINO</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
   </si>
   <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>AMABLE</t>
-  </si>
-  <si>
-    <t>ALMEIDA</t>
-  </si>
-  <si>
-    <t>BALVIN</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HEREDIA</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MERINO</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSSAINZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
+    <t>RAMOS</t>
   </si>
   <si>
     <t>CRUZ</t>
   </si>
   <si>
+    <t>PANZO</t>
+  </si>
+  <si>
     <t>CASTAÑEDA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>ANDRADE</t>
   </si>
   <si>
@@ -232,30 +253,15 @@
     <t>GOMEZ</t>
   </si>
   <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
     <t>LLAVE</t>
   </si>
   <si>
-    <t>WILSON</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>LARA</t>
   </si>
   <si>
@@ -268,24 +274,15 @@
     <t>VILLANUEVA</t>
   </si>
   <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
     <t>TLEHUACTLE</t>
   </si>
   <si>
     <t>MARINERO</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
     <t>VALERDE</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
@@ -295,30 +292,63 @@
     <t>BERMUDEZ</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>SARAI</t>
+  </si>
+  <si>
     <t>RAUL ALEJANDRO</t>
   </si>
   <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
     <t>ERICK MANUEL</t>
   </si>
   <si>
+    <t>KARLA FABIOLA</t>
+  </si>
+  <si>
     <t>IRVING YAHIR</t>
   </si>
   <si>
     <t>BRAULIO VADIR</t>
   </si>
   <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
     <t>ALEXANDER</t>
   </si>
   <si>
@@ -328,99 +358,66 @@
     <t>MARIA DE JESUS</t>
   </si>
   <si>
+    <t>NADYA GUADALUPE</t>
+  </si>
+  <si>
     <t>ANGEL EDUARDO</t>
   </si>
   <si>
     <t>YESUA ISIDRO</t>
   </si>
   <si>
-    <t>HANNIA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ISMERAI</t>
-  </si>
-  <si>
-    <t>FERNANDA CAMILA</t>
-  </si>
-  <si>
-    <t>MELISSA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>ALMA EDITH</t>
-  </si>
-  <si>
-    <t>KATHE ALONDRA</t>
-  </si>
-  <si>
     <t>MARLENE ALICIA</t>
   </si>
   <si>
+    <t>KAREN YESSENIA</t>
+  </si>
+  <si>
+    <t>CRYSTAL MICHELL</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>LEYNER</t>
+  </si>
+  <si>
+    <t>GUADALUPE ABRIL</t>
+  </si>
+  <si>
+    <t>TANIA ARLETH</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>GUILLERMO UBALDO</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>ASAEL PAULINO</t>
+  </si>
+  <si>
+    <t>HEIDI YAMILET</t>
+  </si>
+  <si>
     <t>MARISOL</t>
   </si>
   <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
-  </si>
-  <si>
-    <t>KAREN YESSENIA</t>
-  </si>
-  <si>
-    <t>CRYSTAL MICHELL</t>
-  </si>
-  <si>
-    <t>JAZMIN</t>
-  </si>
-  <si>
-    <t>ABDIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>LEYNER</t>
-  </si>
-  <si>
-    <t>GUADALUPE ABRIL</t>
-  </si>
-  <si>
-    <t>KEVIN JETHZAEL</t>
-  </si>
-  <si>
-    <t>TANIA ARLETH</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>DANNA PAOLA</t>
-  </si>
-  <si>
-    <t>GUILLERMO UBALDO</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>ASAEL PAULINO</t>
-  </si>
-  <si>
-    <t>HEIDI YAMILET</t>
-  </si>
-  <si>
     <t>JANETH</t>
   </si>
   <si>
@@ -434,9 +431,6 @@
   </si>
   <si>
     <t>FATIMA</t>
-  </si>
-  <si>
-    <t>SARAI</t>
   </si>
   <si>
     <t>ATZIN ADAO</t>
@@ -1018,16 +1012,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1041,16 +1038,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>81.08</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1087,16 +1087,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1187,7 +1190,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1204,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>75.68000000000001</v>
+        <v>81.08</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1256,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>79.17</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1301,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,22 +1339,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920223</v>
+        <v>18330051920168</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1359,22 +1362,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920225</v>
+        <v>19330051920024</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1382,22 +1385,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920229</v>
+        <v>19330051920039</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1405,16 +1408,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920230</v>
+        <v>19330051920232</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1428,16 +1431,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920232</v>
+        <v>19330051920237</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1451,22 +1454,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920237</v>
+        <v>19330051920129</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1474,22 +1477,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051420227</v>
+        <v>19330051920197</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1497,22 +1500,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920404</v>
+        <v>19330051920198</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1520,22 +1523,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920240</v>
+        <v>19330051920199</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1543,22 +1546,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920242</v>
+        <v>19330051920204</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1566,22 +1569,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920245</v>
+        <v>19330051920207</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1589,22 +1592,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920126</v>
+        <v>19330051920439</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1612,315 +1615,315 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920127</v>
+        <v>19330051920223</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920380</v>
+        <v>19330051920430</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920132</v>
+        <v>19330051920225</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920134</v>
+        <v>19330051920226</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920002</v>
+        <v>19330051920229</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920137</v>
+        <v>19330051920230</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920140</v>
+        <v>19330051420227</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920143</v>
+        <v>19330051920404</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920144</v>
+        <v>19330051920240</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920147</v>
+        <v>19330051920239</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920186</v>
+        <v>19330051920242</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920185</v>
+        <v>19330051920245</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920187</v>
+        <v>19330051920140</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920189</v>
+        <v>19330051920186</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1929,21 +1932,21 @@
         <v>13</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>19330051920190</v>
+        <v>19330051920185</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1952,21 +1955,21 @@
         <v>13</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>19330051920192</v>
+        <v>19330051920187</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1975,21 +1978,21 @@
         <v>13</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>19330051920193</v>
+        <v>19330051920189</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -1998,21 +2001,21 @@
         <v>13</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>19330051920197</v>
+        <v>19330051920190</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -2021,21 +2024,21 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>19330051920196</v>
+        <v>19330051920192</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -2044,21 +2047,21 @@
         <v>13</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>19330051920200</v>
+        <v>19330051920193</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -2067,21 +2070,21 @@
         <v>13</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>19330051920202</v>
+        <v>19330051920196</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -2090,21 +2093,21 @@
         <v>13</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>19330051920203</v>
+        <v>19330051920200</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -2113,21 +2116,21 @@
         <v>13</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>19330051920204</v>
+        <v>19330051920202</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -2136,21 +2139,21 @@
         <v>13</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>19330051920206</v>
+        <v>19330051920203</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -2159,21 +2162,21 @@
         <v>13</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>19330051920207</v>
+        <v>19330051920206</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -2182,7 +2185,7 @@
         <v>13</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2190,13 +2193,13 @@
         <v>19330051920209</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -2205,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2213,13 +2216,13 @@
         <v>19330051920211</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -2228,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2236,13 +2239,13 @@
         <v>19330051920215</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -2251,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2259,13 +2262,13 @@
         <v>19330051920212</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -2274,7 +2277,7 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2282,13 +2285,13 @@
         <v>19330051920213</v>
       </c>
       <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -2297,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2305,13 +2308,13 @@
         <v>19330051920214</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -2320,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2328,13 +2331,13 @@
         <v>19330051920216</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -2343,7 +2346,7 @@
         <v>13</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2351,13 +2354,13 @@
         <v>19330051920218</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -2366,7 +2369,7 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2374,13 +2377,13 @@
         <v>19330051920220</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -2389,21 +2392,21 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>19330051920439</v>
+        <v>19330051920219</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -2412,21 +2415,21 @@
         <v>13</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>19330051920219</v>
+        <v>19330051920221</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -2435,30 +2438,7 @@
         <v>13</v>
       </c>
       <c r="G49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>19330051920221</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -79,30 +79,27 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>LICEA</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>MUÑOZ</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO</t>
   </si>
   <si>
     <t>ELIDETH</t>
@@ -552,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
         <v>7.6</v>
@@ -578,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>75.68000000000001</v>
+        <v>78.38</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -724,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
         <v>7.6</v>
@@ -759,7 +753,7 @@
         <v>81.08</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -896,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
         <v>7.5</v>
@@ -931,7 +925,7 @@
         <v>81.08</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1019,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1048,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920168</v>
+        <v>19330051920024</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1063,7 +1057,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1077,7 +1071,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920024</v>
+        <v>19330051920039</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1086,7 +1080,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1100,7 +1094,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920039</v>
+        <v>19330051920237</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1109,13 +1103,13 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1123,7 +1117,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920237</v>
+        <v>19330051920129</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1132,13 +1126,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1146,7 +1140,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920129</v>
+        <v>19330051920140</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1155,7 +1149,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1164,12 +1158,12 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920140</v>
+        <v>19330051920202</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1178,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1192,7 +1186,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920202</v>
+        <v>19330051920214</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1201,7 +1195,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1210,29 +1204,6 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>
